--- a/RNAseqSamples/CA1toDGphotos.xlsx
+++ b/RNAseqSamples/CA1toDGphotos.xlsx
@@ -1,25 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26709"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\blk536\Dropbox\BehavEphyRNAseq\RNAseqSamples\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/raynamharris/Github/BehavEphyRNAseq/RNAseqSamples/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
+    <workbookView xWindow="12240" yWindow="560" windowWidth="16580" windowHeight="15260"/>
   </bookViews>
   <sheets>
     <sheet name="CA1toDGphotos" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="0" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="61">
   <si>
     <t>Mouse</t>
   </si>
@@ -344,7 +349,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -524,6 +529,12 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="10">
     <border>
@@ -685,9 +696,11 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -858,37 +871,37 @@
               <c:strCache>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
+                  <c:v>???</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>15-145B</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>15-145C</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>15-145D</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>15-146A</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>15-146B</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>15-146C</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>15-146D</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
+                  <c:v>15-147</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>15-147A</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="10">
                   <c:v>15-147B</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>15-147</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>15-148</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>15-147C</c:v>
@@ -897,7 +910,7 @@
                   <c:v>15-147D</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>15-310</c:v>
+                  <c:v>15-148</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>15-148A</c:v>
@@ -906,13 +919,13 @@
                   <c:v>15-148B</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>15-331</c:v>
+                  <c:v>15-148C</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>15-148C</c:v>
+                  <c:v>15-148D</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>15-148D</c:v>
+                  <c:v>15-310</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -923,62 +936,59 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="19"/>
-                <c:pt idx="0">
-                  <c:v>75</c:v>
-                </c:pt>
                 <c:pt idx="1">
-                  <c:v>72</c:v>
+                  <c:v>75.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>72</c:v>
+                  <c:v>72.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>76</c:v>
+                  <c:v>72.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>69</c:v>
+                  <c:v>76.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>70</c:v>
+                  <c:v>69.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>78</c:v>
+                  <c:v>70.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>77</c:v>
+                  <c:v>78.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>78</c:v>
+                  <c:v>82.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>82</c:v>
+                  <c:v>77.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>72</c:v>
+                  <c:v>78.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>68</c:v>
+                  <c:v>68.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>74</c:v>
+                  <c:v>74.0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>72</c:v>
+                  <c:v>72.0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>79</c:v>
+                  <c:v>79.0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>83</c:v>
+                  <c:v>83.0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>78</c:v>
+                  <c:v>72.0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>72</c:v>
+                  <c:v>78.0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>78</c:v>
+                  <c:v>72.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1016,37 +1026,37 @@
               <c:strCache>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
+                  <c:v>???</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>15-145B</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>15-145C</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>15-145D</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>15-146A</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>15-146B</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>15-146C</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>15-146D</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
+                  <c:v>15-147</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>15-147A</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="10">
                   <c:v>15-147B</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>15-147</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>15-148</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>15-147C</c:v>
@@ -1055,7 +1065,7 @@
                   <c:v>15-147D</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>15-310</c:v>
+                  <c:v>15-148</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>15-148A</c:v>
@@ -1064,13 +1074,13 @@
                   <c:v>15-148B</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>15-331</c:v>
+                  <c:v>15-148C</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>15-148C</c:v>
+                  <c:v>15-148D</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>15-148D</c:v>
+                  <c:v>15-310</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1081,62 +1091,59 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="19"/>
-                <c:pt idx="0">
-                  <c:v>77</c:v>
-                </c:pt>
                 <c:pt idx="1">
-                  <c:v>74</c:v>
+                  <c:v>77.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>77</c:v>
+                  <c:v>74.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>75</c:v>
+                  <c:v>77.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>75</c:v>
+                  <c:v>75.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>72</c:v>
+                  <c:v>75.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>75</c:v>
+                  <c:v>72.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>75</c:v>
+                  <c:v>75.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>73</c:v>
+                  <c:v>74.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>74</c:v>
+                  <c:v>75.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>77</c:v>
+                  <c:v>73.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>78</c:v>
+                  <c:v>78.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>70</c:v>
+                  <c:v>70.0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>79</c:v>
+                  <c:v>77.0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>69</c:v>
+                  <c:v>69.0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>77</c:v>
+                  <c:v>77.0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>73</c:v>
+                  <c:v>78.0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>78</c:v>
+                  <c:v>70.0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>70</c:v>
+                  <c:v>79.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1174,37 +1181,37 @@
               <c:strCache>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
+                  <c:v>???</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>15-145B</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>15-145C</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>15-145D</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>15-146A</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>15-146B</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>15-146C</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>15-146D</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
+                  <c:v>15-147</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>15-147A</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="10">
                   <c:v>15-147B</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>15-147</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>15-148</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>15-147C</c:v>
@@ -1213,7 +1220,7 @@
                   <c:v>15-147D</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>15-310</c:v>
+                  <c:v>15-148</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>15-148A</c:v>
@@ -1222,13 +1229,13 @@
                   <c:v>15-148B</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>15-331</c:v>
+                  <c:v>15-148C</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>15-148C</c:v>
+                  <c:v>15-148D</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>15-148D</c:v>
+                  <c:v>15-310</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1239,59 +1246,56 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="19"/>
-                <c:pt idx="0">
-                  <c:v>74</c:v>
-                </c:pt>
                 <c:pt idx="1">
-                  <c:v>75</c:v>
+                  <c:v>74.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>75</c:v>
+                  <c:v>75.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>78</c:v>
+                  <c:v>75.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>76</c:v>
+                  <c:v>78.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>76</c:v>
+                  <c:v>76.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>74</c:v>
+                  <c:v>76.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>69</c:v>
+                  <c:v>74.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>76</c:v>
+                  <c:v>70.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>70</c:v>
+                  <c:v>69.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>79</c:v>
+                  <c:v>76.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>75</c:v>
+                  <c:v>75.0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>78</c:v>
+                  <c:v>79.0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>75</c:v>
+                  <c:v>75.0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>73</c:v>
+                  <c:v>73.0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>79</c:v>
+                  <c:v>74.0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>74</c:v>
+                  <c:v>74.0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>74</c:v>
+                  <c:v>78.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1329,37 +1333,37 @@
               <c:strCache>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
+                  <c:v>???</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>15-145B</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>15-145C</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>15-145D</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>15-146A</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>15-146B</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>15-146C</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>15-146D</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
+                  <c:v>15-147</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>15-147A</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="10">
                   <c:v>15-147B</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>15-147</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>15-148</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>15-147C</c:v>
@@ -1368,7 +1372,7 @@
                   <c:v>15-147D</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>15-310</c:v>
+                  <c:v>15-148</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>15-148A</c:v>
@@ -1377,13 +1381,13 @@
                   <c:v>15-148B</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>15-331</c:v>
+                  <c:v>15-148C</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>15-148C</c:v>
+                  <c:v>15-148D</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>15-148D</c:v>
+                  <c:v>15-310</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1394,44 +1398,44 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="19"/>
-                <c:pt idx="1">
-                  <c:v>70</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>74</c:v>
+                <c:pt idx="2">
+                  <c:v>70.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>74</c:v>
+                  <c:v>74.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>72</c:v>
+                  <c:v>74.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>72</c:v>
+                  <c:v>72.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>75</c:v>
+                  <c:v>75.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>75</c:v>
+                  <c:v>72.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>85</c:v>
+                  <c:v>75.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>72</c:v>
+                  <c:v>72.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>78</c:v>
+                  <c:v>78.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>85.0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>75</c:v>
+                  <c:v>75.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>69.0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>69</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>76</c:v>
+                  <c:v>76.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1469,37 +1473,37 @@
               <c:strCache>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
+                  <c:v>???</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>15-145B</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>15-145C</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>15-145D</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>15-146A</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>15-146B</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>15-146C</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>15-146D</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
+                  <c:v>15-147</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>15-147A</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="10">
                   <c:v>15-147B</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>15-147</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>15-148</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>15-147C</c:v>
@@ -1508,7 +1512,7 @@
                   <c:v>15-147D</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>15-310</c:v>
+                  <c:v>15-148</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>15-148A</c:v>
@@ -1517,13 +1521,13 @@
                   <c:v>15-148B</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>15-331</c:v>
+                  <c:v>15-148C</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>15-148C</c:v>
+                  <c:v>15-148D</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>15-148D</c:v>
+                  <c:v>15-310</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1535,10 +1539,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="19"/>
                 <c:pt idx="12">
-                  <c:v>76</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>69</c:v>
+                  <c:v>76.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>69.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1553,11 +1557,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="222807008"/>
-        <c:axId val="222809248"/>
+        <c:axId val="-2121951056"/>
+        <c:axId val="-2121940096"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="222807008"/>
+        <c:axId val="-2121951056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1669,17 +1673,17 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="222809248"/>
+        <c:crossAx val="-2121940096"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
-        <c:majorUnit val="2"/>
+        <c:majorUnit val="2.0"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="222809248"/>
+        <c:axId val="-2121940096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="90"/>
-          <c:min val="65"/>
+          <c:max val="90.0"/>
+          <c:min val="65.0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1727,8 +1731,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="1.5571776155717762E-2"/>
-              <c:y val="0.22986892842983023"/>
+              <c:x val="0.0155717761557178"/>
+              <c:y val="0.22986892842983"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -1797,10 +1801,10 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="222807008"/>
+        <c:crossAx val="-2121951056"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
-        <c:majorUnit val="2"/>
+        <c:majorUnit val="2.0"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -2484,9 +2488,9 @@
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -2519,9 +2523,9 @@
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -2703,22 +2707,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="S61" sqref="S61"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="9" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="11.7109375" customWidth="1"/>
-    <col min="5" max="5" width="8.85546875" customWidth="1"/>
-    <col min="6" max="9" width="9.140625" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="4.42578125" customWidth="1"/>
+    <col min="2" max="2" width="20.33203125" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.1640625" customWidth="1"/>
+    <col min="6" max="9" width="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="3.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2762,7 +2766,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -2788,7 +2792,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -2814,7 +2818,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -2840,7 +2844,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>14</v>
       </c>
@@ -2869,7 +2873,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>16</v>
       </c>
@@ -2895,7 +2899,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>17</v>
       </c>
@@ -2921,7 +2925,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>18</v>
       </c>
@@ -2947,7 +2951,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>19</v>
       </c>
@@ -2973,7 +2977,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>20</v>
       </c>
@@ -2999,7 +3003,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>21</v>
       </c>
@@ -3028,7 +3032,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>22</v>
       </c>
@@ -3054,7 +3058,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>23</v>
       </c>
@@ -3080,7 +3084,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>24</v>
       </c>
@@ -3109,7 +3113,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>26</v>
       </c>
@@ -3138,7 +3142,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>27</v>
       </c>
@@ -3164,7 +3168,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>28</v>
       </c>
@@ -3190,7 +3194,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>29</v>
       </c>
@@ -3216,7 +3220,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>30</v>
       </c>
@@ -3242,7 +3246,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>29</v>
       </c>
@@ -3268,7 +3272,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>31</v>
       </c>
@@ -3297,7 +3301,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>33</v>
       </c>
@@ -3326,7 +3330,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>34</v>
       </c>
@@ -3355,7 +3359,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>36</v>
       </c>
@@ -3381,7 +3385,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>37</v>
       </c>
@@ -3407,88 +3411,73 @@
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
+        <v>58</v>
+      </c>
+      <c r="D26" s="1">
+        <v>42216</v>
+      </c>
+      <c r="E26" t="s">
+        <v>50</v>
+      </c>
+      <c r="F26">
+        <v>3</v>
+      </c>
+      <c r="G26">
+        <v>3</v>
+      </c>
+      <c r="H26">
+        <v>3</v>
+      </c>
+      <c r="I26">
+        <v>3</v>
+      </c>
+      <c r="J26">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
         <v>38</v>
-      </c>
-      <c r="C26" t="s">
-        <v>25</v>
-      </c>
-      <c r="D26" s="1">
-        <v>42203</v>
-      </c>
-      <c r="E26" t="s">
-        <v>11</v>
-      </c>
-      <c r="F26">
-        <v>3</v>
-      </c>
-      <c r="G26">
-        <v>3</v>
-      </c>
-      <c r="H26">
-        <v>3</v>
-      </c>
-      <c r="I26">
-        <v>3</v>
-      </c>
-      <c r="J26">
-        <v>3</v>
-      </c>
-      <c r="K26">
-        <v>75</v>
-      </c>
-      <c r="L26">
-        <v>77</v>
-      </c>
-      <c r="M26">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>39</v>
       </c>
       <c r="C27" t="s">
         <v>25</v>
       </c>
       <c r="D27" s="1">
-        <v>42207</v>
+        <v>42203</v>
       </c>
       <c r="E27" t="s">
         <v>11</v>
       </c>
       <c r="F27">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G27">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H27">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I27">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J27">
         <v>3</v>
       </c>
-      <c r="K27">
-        <v>72</v>
+      <c r="K27" s="2">
+        <v>75</v>
       </c>
       <c r="L27">
+        <v>77</v>
+      </c>
+      <c r="M27">
         <v>74</v>
       </c>
-      <c r="M27">
-        <v>75</v>
-      </c>
-      <c r="N27">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C28" t="s">
         <v>25</v>
@@ -3500,16 +3489,16 @@
         <v>11</v>
       </c>
       <c r="F28">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G28">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H28">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I28">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J28">
         <v>3</v>
@@ -3518,21 +3507,24 @@
         <v>72</v>
       </c>
       <c r="L28">
-        <v>77</v>
-      </c>
-      <c r="M28">
+        <v>74</v>
+      </c>
+      <c r="M28" s="2">
         <v>75</v>
       </c>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N28">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C29" t="s">
         <v>25</v>
       </c>
       <c r="D29" s="1">
-        <v>42208</v>
+        <v>42207</v>
       </c>
       <c r="E29" t="s">
         <v>11</v>
@@ -3553,18 +3545,18 @@
         <v>3</v>
       </c>
       <c r="K29">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="L29">
+        <v>77</v>
+      </c>
+      <c r="M29" s="2">
         <v>75</v>
       </c>
-      <c r="M29">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C30" t="s">
         <v>25</v>
@@ -3576,42 +3568,39 @@
         <v>11</v>
       </c>
       <c r="F30">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G30">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H30">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I30">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J30">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K30">
-        <v>69</v>
-      </c>
-      <c r="L30">
+        <v>76</v>
+      </c>
+      <c r="L30" s="2">
         <v>75</v>
       </c>
       <c r="M30">
-        <v>76</v>
-      </c>
-      <c r="N30">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C31" t="s">
         <v>25</v>
       </c>
       <c r="D31" s="1">
-        <v>42209</v>
+        <v>42208</v>
       </c>
       <c r="E31" t="s">
         <v>11</v>
@@ -3620,7 +3609,7 @@
         <v>4</v>
       </c>
       <c r="G31">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H31">
         <v>4</v>
@@ -3632,10 +3621,10 @@
         <v>4</v>
       </c>
       <c r="K31">
-        <v>70</v>
-      </c>
-      <c r="L31">
-        <v>72</v>
+        <v>69</v>
+      </c>
+      <c r="L31" s="2">
+        <v>75</v>
       </c>
       <c r="M31">
         <v>76</v>
@@ -3644,9 +3633,9 @@
         <v>74</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C32" t="s">
         <v>25</v>
@@ -3673,27 +3662,27 @@
         <v>4</v>
       </c>
       <c r="K32">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="L32">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="M32">
+        <v>76</v>
+      </c>
+      <c r="N32" s="2">
         <v>74</v>
       </c>
-      <c r="N32">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C33" t="s">
         <v>25</v>
       </c>
       <c r="D33" s="1">
-        <v>42210</v>
+        <v>42209</v>
       </c>
       <c r="E33" t="s">
         <v>11</v>
@@ -3714,27 +3703,30 @@
         <v>4</v>
       </c>
       <c r="K33">
-        <v>77</v>
-      </c>
-      <c r="L33">
+        <v>78</v>
+      </c>
+      <c r="L33" s="2">
         <v>75</v>
       </c>
-      <c r="M33">
-        <v>69</v>
+      <c r="M33" s="3">
+        <v>74</v>
       </c>
       <c r="N33">
         <v>72</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>46</v>
+        <v>47</v>
+      </c>
+      <c r="B34" t="s">
+        <v>48</v>
       </c>
       <c r="C34" t="s">
         <v>25</v>
       </c>
       <c r="D34" s="1">
-        <v>42210</v>
+        <v>42212</v>
       </c>
       <c r="E34" t="s">
         <v>11</v>
@@ -3749,36 +3741,33 @@
         <v>4</v>
       </c>
       <c r="I34">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J34">
         <v>4</v>
       </c>
       <c r="K34">
-        <v>78</v>
-      </c>
-      <c r="L34">
-        <v>73</v>
+        <v>82</v>
+      </c>
+      <c r="L34" s="2">
+        <v>74</v>
       </c>
       <c r="M34">
-        <v>76</v>
-      </c>
-      <c r="N34">
+        <v>70</v>
+      </c>
+      <c r="N34" s="3">
         <v>75</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>47</v>
-      </c>
-      <c r="B35" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C35" t="s">
         <v>25</v>
       </c>
       <c r="D35" s="1">
-        <v>42212</v>
+        <v>42210</v>
       </c>
       <c r="E35" t="s">
         <v>11</v>
@@ -3793,42 +3782,39 @@
         <v>4</v>
       </c>
       <c r="I35">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J35">
         <v>4</v>
       </c>
       <c r="K35">
-        <v>82</v>
-      </c>
-      <c r="L35">
-        <v>74</v>
+        <v>77</v>
+      </c>
+      <c r="L35" s="2">
+        <v>75</v>
       </c>
       <c r="M35">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="N35">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>51</v>
-      </c>
-      <c r="B36" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C36" t="s">
         <v>25</v>
       </c>
       <c r="D36" s="1">
-        <v>42213</v>
+        <v>42210</v>
       </c>
       <c r="E36" t="s">
         <v>11</v>
       </c>
       <c r="F36">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G36">
         <v>4</v>
@@ -3843,19 +3829,19 @@
         <v>4</v>
       </c>
       <c r="K36">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="L36">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="M36">
-        <v>79</v>
-      </c>
-      <c r="N36">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+      <c r="N36" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>52</v>
       </c>
@@ -3889,14 +3875,14 @@
       <c r="L37">
         <v>78</v>
       </c>
-      <c r="M37">
+      <c r="M37" s="2">
         <v>75</v>
       </c>
       <c r="N37">
         <v>72</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>53</v>
       </c>
@@ -3924,7 +3910,7 @@
       <c r="J38">
         <v>4</v>
       </c>
-      <c r="K38">
+      <c r="K38" s="2">
         <v>74</v>
       </c>
       <c r="L38">
@@ -3937,45 +3923,51 @@
         <v>76</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>54</v>
+        <v>51</v>
+      </c>
+      <c r="B39" t="s">
+        <v>48</v>
       </c>
       <c r="C39" t="s">
         <v>25</v>
       </c>
       <c r="D39" s="1">
-        <v>42214</v>
+        <v>42213</v>
       </c>
       <c r="E39" t="s">
-        <v>50</v>
+        <v>11</v>
       </c>
       <c r="F39">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G39">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H39">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I39">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J39">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K39">
         <v>72</v>
       </c>
-      <c r="L39">
+      <c r="L39" s="2">
+        <v>77</v>
+      </c>
+      <c r="M39">
         <v>79</v>
       </c>
-      <c r="M39">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N39">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>55</v>
       </c>
@@ -4009,11 +4001,11 @@
       <c r="L40">
         <v>69</v>
       </c>
-      <c r="M40">
+      <c r="M40" s="2">
         <v>75</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>56</v>
       </c>
@@ -4050,51 +4042,54 @@
       <c r="M41">
         <v>73</v>
       </c>
-      <c r="N41">
+      <c r="N41" s="2">
         <v>75</v>
       </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C42" t="s">
         <v>25</v>
       </c>
       <c r="D42" s="1">
-        <v>42215</v>
+        <v>42216</v>
       </c>
       <c r="E42" t="s">
-        <v>50</v>
+        <v>11</v>
       </c>
       <c r="F42">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G42">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H42">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I42">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J42">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K42">
+        <v>72</v>
+      </c>
+      <c r="L42">
         <v>78</v>
       </c>
-      <c r="L42">
-        <v>73</v>
-      </c>
-      <c r="M42">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="M42" s="2">
+        <v>74</v>
+      </c>
+      <c r="N42">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C43" t="s">
         <v>25</v>
@@ -4106,10 +4101,10 @@
         <v>11</v>
       </c>
       <c r="F43">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G43">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H43">
         <v>4</v>
@@ -4118,69 +4113,69 @@
         <v>4</v>
       </c>
       <c r="J43">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K43">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="L43">
-        <v>78</v>
-      </c>
-      <c r="M43">
+        <v>70</v>
+      </c>
+      <c r="M43" s="2">
         <v>74</v>
       </c>
       <c r="N43">
+        <v>76</v>
+      </c>
+      <c r="O43">
         <v>69</v>
       </c>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="C44" t="s">
         <v>25</v>
       </c>
       <c r="D44" s="1">
-        <v>42216</v>
+        <v>42214</v>
       </c>
       <c r="E44" t="s">
-        <v>11</v>
+        <v>50</v>
       </c>
       <c r="F44">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G44">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H44">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I44">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J44">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K44">
+        <v>72</v>
+      </c>
+      <c r="L44">
+        <v>79</v>
+      </c>
+      <c r="M44" s="2">
         <v>78</v>
       </c>
-      <c r="L44">
-        <v>70</v>
-      </c>
-      <c r="M44">
-        <v>74</v>
-      </c>
-      <c r="N44">
-        <v>76</v>
-      </c>
-      <c r="O44">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>49</v>
       </c>
+      <c r="C45" t="s">
+        <v>25</v>
+      </c>
       <c r="D45" s="1">
         <v>42212</v>
       </c>
@@ -4205,16 +4200,19 @@
       <c r="K45">
         <v>88</v>
       </c>
-      <c r="L45">
+      <c r="L45" s="2">
         <v>87</v>
       </c>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>58</v>
+        <v>57</v>
+      </c>
+      <c r="C46" t="s">
+        <v>25</v>
       </c>
       <c r="D46" s="1">
-        <v>42216</v>
+        <v>42215</v>
       </c>
       <c r="E46" t="s">
         <v>50</v>
@@ -4234,8 +4232,20 @@
       <c r="J46">
         <v>3</v>
       </c>
+      <c r="K46" s="2">
+        <v>78</v>
+      </c>
+      <c r="L46" s="3">
+        <v>73</v>
+      </c>
+      <c r="M46">
+        <v>79</v>
+      </c>
     </row>
   </sheetData>
+  <sortState ref="A26:O46">
+    <sortCondition ref="A2:A46"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
